--- a/data/trans_camb/P15_4-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15_4-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,47</t>
+          <t>25,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,1</t>
+          <t>33,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,84</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>14,42</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,57</t>
+          <t>26,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,01</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,75</t>
+          <t>19,96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>19,66</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>29,66</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>34,6</t>
+          <t>30,27</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 3,29</t>
+          <t>-7,43; 4,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,95; 32,98</t>
+          <t>17,28; 34,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,19; 43,57</t>
+          <t>24,01; 44,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,69; 49,94</t>
+          <t>-14,42; -2,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,23; -2,28</t>
+          <t>5,54; 22,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 23,43</t>
+          <t>16,71; 36,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 35,33</t>
+          <t>-8,93; -0,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,04; 38,56</t>
+          <t>14,03; 26,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -0,63</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>13,64; 26,48</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>22,9; 36,54</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>26,4; 41,73</t>
+          <t>23,15; 37,27</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-26,59%</t>
+          <t>-21,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>293,65%</t>
+          <t>302,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>397,23%</t>
+          <t>407,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>478,09%</t>
+          <t>-63,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-64,12%</t>
+          <t>113,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>114,76%</t>
+          <t>207,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>204,84%</t>
+          <t>-45,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>226,42%</t>
+          <t>191,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-48,44%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>188,98%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>285,15%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>332,64%</t>
+          <t>291,0%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,55; 59,17</t>
+          <t>-67,31; 101,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>127,05; 573,45</t>
+          <t>133,97; 612,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>179,52; 784,68</t>
+          <t>196,16; 829,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>238,42; 892,0</t>
+          <t>-85,97; -20,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-88,28; -21,27</t>
+          <t>29,71; 248,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,21; 254,56</t>
+          <t>92,56; 391,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>98,06; 406,17</t>
+          <t>-70,55; -2,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>110,8; 437,76</t>
+          <t>106,31; 320,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,67; -4,55</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>104,4; 314,43</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>179,04; 459,18</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>196,65; 514,83</t>
+          <t>177,87; 480,49</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,82</t>
+          <t>-8,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,09</t>
+          <t>21,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,3</t>
+          <t>24,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,74</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>23,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,98</t>
+          <t>29,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,69</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,85</t>
+          <t>22,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>21,49</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>26,41</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>35,22</t>
+          <t>26,88</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,51; -2,55</t>
+          <t>-15,52; -2,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,96; 29,9</t>
+          <t>11,8; 31,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,07; 33,88</t>
+          <t>15,57; 34,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,04; 44,56</t>
+          <t>-9,09; 1,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 0,79</t>
+          <t>15,81; 30,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,74; 29,71</t>
+          <t>21,91; 37,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,12; 36,26</t>
+          <t>-10,54; -2,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,75; 45,41</t>
+          <t>16,55; 28,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -2,61</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>15,52; 27,74</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>20,67; 31,97</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>27,75; 42,08</t>
+          <t>20,99; 33,22</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-58,81%</t>
+          <t>-59,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>133,95%</t>
+          <t>142,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>162,01%</t>
+          <t>164,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>224,96%</t>
+          <t>-41,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-40,89%</t>
+          <t>240,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>238,88%</t>
+          <t>303,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>298,24%</t>
+          <t>-53,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>383,16%</t>
+          <t>178,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-52,15%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>173,02%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>212,69%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>283,58%</t>
+          <t>216,46%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,66; -17,2</t>
+          <t>-81,26; -20,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,47; 261,13</t>
+          <t>55,96; 283,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>73,63; 303,06</t>
+          <t>79,01; 303,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>119,06; 403,95</t>
+          <t>-73,32; 33,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,13; 20,33</t>
+          <t>121,31; 505,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>122,17; 438,69</t>
+          <t>163,2; 534,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>156,75; 511,73</t>
+          <t>-70,32; -22,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>218,67; 674,43</t>
+          <t>110,88; 276,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-70,18; -22,37</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>101,42; 257,75</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>138,19; 318,38</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>184,9; 394,01</t>
+          <t>141,23; 331,02</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>-7,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,19</t>
+          <t>26,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,58</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>30,25</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>30,64</t>
+          <t>-6,88</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,13</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>12,87</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>28,46</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>32,07</t>
+          <t>28,28</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,45; -0,54</t>
+          <t>-13,86; -0,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 15,29</t>
+          <t>0,98; 15,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,0; 34,3</t>
+          <t>17,71; 33,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,65; 42,81</t>
+          <t>-10,79; -1,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 1,25</t>
+          <t>11,0; 23,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,33; 23,47</t>
+          <t>23,74; 35,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,44; 36,84</t>
+          <t>-11,2; -3,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,98; 36,51</t>
+          <t>7,85; 17,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; -1,29</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>7,97; 17,64</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>23,32; 33,99</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>26,03; 38,2</t>
+          <t>23,39; 34,03</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-41,82%</t>
+          <t>-47,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>54,65%</t>
+          <t>55,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>165,22%</t>
+          <t>165,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>218,18%</t>
+          <t>-45,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-35,76%</t>
+          <t>118,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>121,1%</t>
+          <t>216,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>219,67%</t>
+          <t>-46,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>208,84%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-38,94%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>86,45%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>191,17%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>215,44%</t>
+          <t>189,92%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-68,7; 1,14</t>
+          <t>-68,92; -4,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 119,65</t>
+          <t>4,49; 124,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,41; 269,54</t>
+          <t>85,85; 272,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>123,46; 341,34</t>
+          <t>-65,84; -11,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,71; 14,0</t>
+          <t>63,31; 198,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>60,65; 201,52</t>
+          <t>138,36; 325,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>140,83; 328,09</t>
+          <t>-63,21; -23,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>133,28; 323,38</t>
+          <t>43,1; 141,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,26; -5,81</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>46,8; 139,39</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>129,04; 269,34</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>149,51; 305,81</t>
+          <t>130,07; 271,11</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,88</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,07</t>
+          <t>15,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,67</t>
+          <t>24,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,89</t>
+          <t>-8,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,97</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,03</t>
+          <t>24,46</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,73</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,39</t>
+          <t>12,95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>13,01</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>24,21</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>30,67</t>
+          <t>24,29</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,43; -1,62</t>
+          <t>-12,22; -1,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,45; 21,86</t>
+          <t>7,95; 22,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,41; 31,21</t>
+          <t>16,95; 31,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,07; 39,5</t>
+          <t>-13,69; -4,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,99; -4,7</t>
+          <t>4,77; 17,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,2; 17,05</t>
+          <t>17,12; 30,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,37; 30,68</t>
+          <t>-11,91; -4,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,24; 37,59</t>
+          <t>9,03; 17,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,71; -4,27</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>8,42; 17,71</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>18,99; 28,79</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>24,6; 36,32</t>
+          <t>19,33; 28,74</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-43,79%</t>
+          <t>-44,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150,66%</t>
+          <t>153,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>196,63%</t>
+          <t>-58,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-58,4%</t>
+          <t>69,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>71,87%</t>
+          <t>159,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>161,11%</t>
+          <t>-51,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>197,92%</t>
+          <t>83,41%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-51,29%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>83,84%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>156,0%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>197,58%</t>
+          <t>156,52%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,46; -10,92</t>
+          <t>-65,58; -7,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>45,4; 176,56</t>
+          <t>45,18; 178,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>82,46; 249,68</t>
+          <t>87,38; 249,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>118,06; 307,38</t>
+          <t>-76,0; -34,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-77,32; -33,75</t>
+          <t>22,46; 138,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,02; 129,33</t>
+          <t>94,53; 245,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>97,25; 239,43</t>
+          <t>-65,87; -31,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>121,9; 290,3</t>
+          <t>49,36; 130,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-67,07; -30,83</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>46,23; 133,21</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>107,97; 213,11</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>137,41; 270,32</t>
+          <t>107,34; 211,09</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1496,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1770,52 +1506,37 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18,82</t>
+          <t>19,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>24,85</t>
+          <t>-7,93</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-8,25</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>15,2</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>15,39</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>28,36</t>
+          <t>9,53</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>9,33</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>17,07</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>26,69</t>
+          <t>17,19</t>
         </is>
       </c>
     </row>
@@ -1828,62 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 1,35</t>
+          <t>-9,3; 1,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,09; 16,37</t>
+          <t>3,47; 16,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,21; 26,27</t>
+          <t>12,42; 27,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,46; 33,0</t>
+          <t>-13,07; -3,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,06; -3,73</t>
+          <t>3,88; 16,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,32; 15,19</t>
+          <t>8,56; 21,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,05; 22,07</t>
+          <t>-9,99; -2,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,9; 36,59</t>
+          <t>5,17; 14,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,73; -2,71</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 13,75</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>12,12; 22,11</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>20,94; 31,89</t>
+          <t>12,09; 22,37</t>
         </is>
       </c>
     </row>
@@ -1896,62 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-33,33%</t>
+          <t>-34,14%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>80,06%</t>
+          <t>80,01%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>154,74%</t>
+          <t>158,3%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>204,38%</t>
+          <t>-64,35%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-66,89%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>72,38%</t>
+          <t>123,32%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>124,84%</t>
+          <t>-49,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>230,06%</t>
+          <t>77,85%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-50,49%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>76,2%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>139,46%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>218,02%</t>
+          <t>140,37%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-64,18; 14,89</t>
+          <t>-62,6; 18,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>17,79; 174,0</t>
+          <t>21,26; 172,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>73,97; 284,44</t>
+          <t>77,87; 289,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>104,81; 352,19</t>
+          <t>-84,31; -29,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-84,63; -33,97</t>
+          <t>25,84; 184,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,5; 158,5</t>
+          <t>49,64; 238,71</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>45,91; 223,53</t>
+          <t>-68,61; -23,05</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>126,25; 385,15</t>
+          <t>33,41; 141,28</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-67,55; -23,4</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>34,21; 143,07</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>82,91; 216,88</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>145,06; 317,55</t>
+          <t>80,95; 227,79</t>
         </is>
       </c>
     </row>
@@ -2036,62 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,46</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>16,02</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>7,07</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>14,05</t>
+          <t>7,23</t>
         </is>
       </c>
     </row>
@@ -2104,62 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,6; -2,8</t>
+          <t>-11,51; -2,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 8,32</t>
+          <t>-3,16; 8,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,55; 15,9</t>
+          <t>2,39; 16,03</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,98; 19,44</t>
+          <t>-9,97; -2,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -3,3</t>
+          <t>-1,82; 8,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 7,85</t>
+          <t>0,7; 11,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,57; 11,64</t>
+          <t>-9,39; -3,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>8,01; 26,48</t>
+          <t>-0,97; 6,74</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -4,12</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>-1,22; 6,31</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 11,38</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>8,29; 20,91</t>
+          <t>2,78; 11,35</t>
         </is>
       </c>
     </row>
@@ -2172,62 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-72,32%</t>
+          <t>-68,85%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>117,83%</t>
+          <t>-77,26%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-80,41%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>72,61%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>70,61%</t>
+          <t>-73,23%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>199,48%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-76,52%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>34,16%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>81,02%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>160,94%</t>
+          <t>82,78%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-91,35; -28,79</t>
+          <t>-89,47; -34,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 117,41</t>
+          <t>-27,92; 129,11</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>16,24; 223,98</t>
+          <t>17,19; 221,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>30,67; 269,59</t>
+          <t>-94,11; -35,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-94,87; -42,96</t>
+          <t>-17,14; 141,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 133,81</t>
+          <t>5,65; 186,79</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,24; 194,48</t>
+          <t>-87,7; -50,79</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>74,97; 438,03</t>
+          <t>-9,45; 92,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-89,61; -54,14</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>-11,63; 87,18</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>28,33; 156,31</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>77,53; 284,12</t>
+          <t>27,3; 158,25</t>
         </is>
       </c>
     </row>
@@ -2312,62 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>13,36</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>22,74</t>
+          <t>23,11</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>29,52</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-6,74</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>12,69</t>
+          <t>21,69</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>21,69</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>27,47</t>
+          <t>13,16</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-6,4</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>13,02</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>22,2</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>28,5</t>
+          <t>22,38</t>
         </is>
       </c>
     </row>
@@ -2380,62 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,39; -3,66</t>
+          <t>-8,39; -3,69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>10,13; 16,51</t>
+          <t>10,53; 17,06</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>19,26; 26,21</t>
+          <t>19,89; 26,85</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>25,69; 33,59</t>
+          <t>-8,87; -4,98</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -4,79</t>
+          <t>9,91; 15,43</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,95; 15,51</t>
+          <t>19,0; 24,55</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>18,57; 24,4</t>
+          <t>-8,08; -5,05</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>23,85; 30,77</t>
+          <t>11,09; 15,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -4,83</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>11,04; 15,09</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>19,95; 24,34</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>25,65; 30,83</t>
+          <t>20,07; 24,56</t>
         </is>
       </c>
     </row>
@@ -2448,62 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-46,31%</t>
+          <t>-47,2%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>102,44%</t>
+          <t>105,8%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>174,42%</t>
+          <t>177,22%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>226,39%</t>
+          <t>-57,37%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-56,1%</t>
+          <t>104,42%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>105,6%</t>
+          <t>180,48%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>180,48%</t>
+          <t>-52,19%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>228,58%</t>
+          <t>105,12%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-51,12%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>103,99%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>177,39%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>227,72%</t>
+          <t>178,82%</t>
         </is>
       </c>
     </row>
@@ -2516,76 +2087,68 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-59,11; -30,92</t>
+          <t>-59,0; -31,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>68,68; 141,79</t>
+          <t>71,04; 147,3</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>130,27; 226,28</t>
+          <t>135,17; 232,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>177,39; 284,47</t>
+          <t>-67,08; -45,16</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-67,17; -42,51</t>
+          <t>73,51; 140,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>73,88; 141,81</t>
+          <t>142,8; 224,09</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>139,95; 224,17</t>
+          <t>-60,3; -43,27</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>180,68; 281,64</t>
+          <t>81,84; 131,87</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-59,31; -40,64</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>82,07; 129,32</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>149,36; 210,94</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>190,45; 264,97</t>
+          <t>146,69; 211,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
